--- a/OpenMP_charts.xlsx
+++ b/OpenMP_charts.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7semester\OpenMP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>LIMIT = 10</t>
   </si>
@@ -65,6 +61,12 @@
   </si>
   <si>
     <t>atomic</t>
+  </si>
+  <si>
+    <t>sections I</t>
+  </si>
+  <si>
+    <t>sections II</t>
   </si>
 </sst>
 </file>
@@ -181,26 +183,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -496,12 +478,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="890296176"/>
-        <c:axId val="890299984"/>
+        <c:axId val="227332096"/>
+        <c:axId val="211983104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="890296176"/>
+        <c:axId val="227332096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +517,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -543,26 +525,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -601,7 +563,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890299984"/>
+        <c:crossAx val="211983104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -609,7 +571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="890299984"/>
+        <c:axId val="211983104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +622,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -669,26 +630,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -721,7 +662,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890296176"/>
+        <c:crossAx val="227332096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -735,7 +676,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -863,26 +803,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1124,11 +1044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="890295088"/>
-        <c:axId val="890301616"/>
+        <c:axId val="224867328"/>
+        <c:axId val="225133696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="890295088"/>
+        <c:axId val="224867328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1085,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1174,26 +1093,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1232,7 +1131,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890301616"/>
+        <c:crossAx val="225133696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1240,7 +1139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="890301616"/>
+        <c:axId val="225133696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1190,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1300,26 +1198,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1352,7 +1230,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890295088"/>
+        <c:crossAx val="224867328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1366,7 +1244,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1499,26 +1376,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1607,7 +1464,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1338</c:v>
+                  <c:v>1281</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1112</c:v>
@@ -1760,11 +1617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="781129168"/>
-        <c:axId val="781131344"/>
+        <c:axId val="227333632"/>
+        <c:axId val="225136000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="781129168"/>
+        <c:axId val="227333632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,26 +1667,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1868,7 +1705,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="781131344"/>
+        <c:crossAx val="225136000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1876,7 +1713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="781131344"/>
+        <c:axId val="225136000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,26 +1773,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1988,7 +1805,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="781129168"/>
+        <c:crossAx val="227333632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2061,6 +1878,443 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reduction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1547</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>atomic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1642</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20149</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sections I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14792</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sections II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27447</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="156481536"/>
+        <c:axId val="129743040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="156481536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129743040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129743040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156481536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3799,6 +4053,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2049780</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4071,7 +4360,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4542,10 +4831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D10"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4553,9 +4842,11 @@
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -4565,19 +4856,31 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1338</v>
+        <v>1281</v>
       </c>
       <c r="D2">
         <v>1906</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>100</v>
       </c>
@@ -4587,8 +4890,14 @@
       <c r="D3">
         <v>1111</v>
       </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1000</v>
       </c>
@@ -4598,8 +4907,14 @@
       <c r="D4">
         <v>1141</v>
       </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -4609,8 +4924,14 @@
       <c r="D5">
         <v>1209</v>
       </c>
+      <c r="E5">
+        <v>154</v>
+      </c>
+      <c r="F5">
+        <v>305</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>50000</v>
       </c>
@@ -4620,8 +4941,14 @@
       <c r="D6">
         <v>1642</v>
       </c>
+      <c r="E6">
+        <v>774</v>
+      </c>
+      <c r="F6">
+        <v>1310</v>
+      </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>100000</v>
       </c>
@@ -4631,8 +4958,14 @@
       <c r="D7">
         <v>3803</v>
       </c>
+      <c r="E7">
+        <v>1670</v>
+      </c>
+      <c r="F7">
+        <v>2802</v>
+      </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>500000</v>
       </c>
@@ -4642,8 +4975,14 @@
       <c r="D8">
         <v>9993</v>
       </c>
+      <c r="E8">
+        <v>7113</v>
+      </c>
+      <c r="F8">
+        <v>13365</v>
+      </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1000000</v>
       </c>
@@ -4653,8 +4992,14 @@
       <c r="D9">
         <v>20149</v>
       </c>
+      <c r="E9">
+        <v>14792</v>
+      </c>
+      <c r="F9">
+        <v>27447</v>
+      </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1200000</v>
       </c>
@@ -4663,6 +5008,205 @@
       </c>
       <c r="D10">
         <v>25989</v>
+      </c>
+      <c r="E10">
+        <v>18506</v>
+      </c>
+      <c r="F10">
+        <v>35993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="52.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1281</v>
+      </c>
+      <c r="E2">
+        <v>1906</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>1112</v>
+      </c>
+      <c r="E3">
+        <v>1111</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1712</v>
+      </c>
+      <c r="E4">
+        <v>1141</v>
+      </c>
+      <c r="F4">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <v>1394</v>
+      </c>
+      <c r="E5">
+        <v>1209</v>
+      </c>
+      <c r="F5">
+        <v>154</v>
+      </c>
+      <c r="G5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>50000</v>
+      </c>
+      <c r="D6">
+        <v>1420</v>
+      </c>
+      <c r="E6">
+        <v>1642</v>
+      </c>
+      <c r="F6">
+        <v>774</v>
+      </c>
+      <c r="G6">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>2646</v>
+      </c>
+      <c r="E7">
+        <v>3803</v>
+      </c>
+      <c r="F7">
+        <v>1670</v>
+      </c>
+      <c r="G7">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>500000</v>
+      </c>
+      <c r="D8">
+        <v>1547</v>
+      </c>
+      <c r="E8">
+        <v>9993</v>
+      </c>
+      <c r="F8">
+        <v>7113</v>
+      </c>
+      <c r="G8">
+        <v>13365</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1000000</v>
+      </c>
+      <c r="D9">
+        <v>6257</v>
+      </c>
+      <c r="E9">
+        <v>20149</v>
+      </c>
+      <c r="F9">
+        <v>14792</v>
+      </c>
+      <c r="G9">
+        <v>27447</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1200000</v>
+      </c>
+      <c r="D10">
+        <v>4539</v>
+      </c>
+      <c r="E10">
+        <v>25989</v>
+      </c>
+      <c r="F10">
+        <v>18506</v>
+      </c>
+      <c r="G10">
+        <v>35993</v>
       </c>
     </row>
   </sheetData>

--- a/OpenMP_charts.xlsx
+++ b/OpenMP_charts.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7semester\OpenMP\OpenMPCourse\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="3"/>
   </bookViews>
@@ -183,6 +188,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -478,13 +503,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227332096"/>
-        <c:axId val="211983104"/>
+        <c:axId val="46401776"/>
+        <c:axId val="46408848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227332096"/>
+        <c:axId val="46401776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,6 +549,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -563,7 +607,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211983104"/>
+        <c:crossAx val="46408848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -571,7 +615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211983104"/>
+        <c:axId val="46408848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,6 +674,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -662,7 +726,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227332096"/>
+        <c:crossAx val="46401776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -803,6 +867,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1044,11 +1128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224867328"/>
-        <c:axId val="225133696"/>
+        <c:axId val="46414832"/>
+        <c:axId val="46411568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224867328"/>
+        <c:axId val="46414832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,6 +1177,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1131,7 +1235,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225133696"/>
+        <c:crossAx val="46411568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1139,7 +1243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225133696"/>
+        <c:axId val="46411568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,6 +1302,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1230,7 +1354,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224867328"/>
+        <c:crossAx val="46414832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1367,7 +1491,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1376,6 +1499,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1617,11 +1760,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227333632"/>
-        <c:axId val="225136000"/>
+        <c:axId val="46409936"/>
+        <c:axId val="46412656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227333632"/>
+        <c:axId val="46409936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1801,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1667,6 +1809,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1705,7 +1867,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225136000"/>
+        <c:crossAx val="46412656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1713,7 +1875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225136000"/>
+        <c:axId val="46412656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,7 +1926,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1773,6 +1934,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1805,7 +1986,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227333632"/>
+        <c:crossAx val="46409936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1819,7 +2000,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1920,6 +2100,31 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Лист4!$C$2:$C$10</c:f>
@@ -2008,6 +2213,31 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Лист4!$C$2:$C$10</c:f>
@@ -2096,6 +2326,31 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Лист4!$C$2:$C$10</c:f>
@@ -2184,6 +2439,33 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Лист4!$C$2:$C$10</c:f>
@@ -2268,21 +2550,106 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156481536"/>
-        <c:axId val="129743040"/>
+        <c:axId val="46404496"/>
+        <c:axId val="46402320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156481536"/>
+        <c:axId val="46404496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> элементов массива</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129743040"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46402320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2290,31 +2657,187 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129743040"/>
+        <c:axId val="46402320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>, мкс</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156481536"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46404496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2443,6 +2966,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3961,6 +4521,446 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4360,7 +5360,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
